--- a/data/Szenario_Default/Power_VRES.xlsx
+++ b/data/Szenario_Default/Power_VRES.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\GIT\LEGO-Pyomo\data\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suess\Desktop\Git\LEGO-Pyomo\data\Szenario_Default\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B55C3FF-F6B2-423F-91A8-2DA7D98E279F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D641627-F0E7-4E1B-8A5A-1CB332492FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioA" sheetId="1" r:id="rId1"/>
@@ -854,20 +854,20 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E11:E18"/>
+      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" customWidth="1"/>
-    <col min="2" max="2" width="19.73046875" customWidth="1"/>
-    <col min="3" max="15" width="15.73046875" customWidth="1"/>
-    <col min="16" max="17" width="20.19921875" customWidth="1"/>
-    <col min="18" max="19" width="15.73046875" customWidth="1"/>
-    <col min="20" max="21" width="24.59765625" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="15" width="15.7109375" customWidth="1"/>
+    <col min="16" max="17" width="20.140625" customWidth="1"/>
+    <col min="18" max="19" width="15.7109375" customWidth="1"/>
+    <col min="20" max="21" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:21" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -892,7 +892,7 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -900,7 +900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -965,7 +965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>24</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
         <v>35</v>
@@ -1093,7 +1093,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="8" t="s">
         <v>53</v>
@@ -1156,7 +1156,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
         <v>56</v>
@@ -1219,7 +1219,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12" t="s">
@@ -1241,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="13">
-        <v>290</v>
+        <v>40</v>
       </c>
       <c r="J8" s="15">
         <v>72641.801500000001</v>
@@ -1274,7 +1274,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12" t="s">
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="13">
-        <v>290</v>
+        <v>20</v>
       </c>
       <c r="J9" s="15">
         <v>80000</v>
@@ -1327,7 +1327,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="12" t="s">
@@ -1349,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="13">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="J10" s="15">
         <v>84467.2111</v>
@@ -1380,7 +1380,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12" t="s">
@@ -1402,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="13">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="J11" s="15">
         <v>84967.2111</v>
@@ -1433,7 +1433,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="12" t="s">
@@ -1455,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="13">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="J12" s="15">
         <v>84467.2111</v>
@@ -1486,7 +1486,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="12" t="s">
@@ -1508,7 +1508,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="13">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="J13" s="15">
         <v>84967.2111</v>
@@ -1539,7 +1539,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="12" t="s">
@@ -1561,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="13">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="J14" s="15">
         <v>84467.2111</v>
@@ -1592,7 +1592,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12" t="s">
@@ -1614,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="13">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="J15" s="15">
         <v>84967.2111</v>
@@ -1645,7 +1645,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12" t="s">
@@ -1667,7 +1667,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="13">
-        <v>290</v>
+        <v>110</v>
       </c>
       <c r="J16" s="15">
         <v>72641.801500000001</v>
@@ -1700,7 +1700,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="12" t="s">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="13">
-        <v>290</v>
+        <v>35</v>
       </c>
       <c r="J17" s="15">
         <v>80000</v>
@@ -1753,7 +1753,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="12" t="s">
@@ -1775,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="13">
-        <v>290</v>
+        <v>30</v>
       </c>
       <c r="J18" s="15">
         <v>80000</v>

--- a/data/Szenario_Default/Power_VRES.xlsx
+++ b/data/Szenario_Default/Power_VRES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suess\Desktop\Git\LEGO-Pyomo\data\Szenario_Default\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D641627-F0E7-4E1B-8A5A-1CB332492FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAD6706-8876-4EFF-9FFA-BCBE1A7CC039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -854,7 +854,7 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1232,7 @@
         <v>85</v>
       </c>
       <c r="F8" s="13">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G8" s="14">
         <v>100</v>
@@ -1241,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="13">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="J8" s="15">
         <v>72641.801500000001</v>
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="13">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J9" s="15">
         <v>80000</v>
@@ -1349,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="13">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="J10" s="15">
         <v>84467.2111</v>
@@ -1402,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="13">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J11" s="15">
         <v>84967.2111</v>
@@ -1446,7 +1446,7 @@
         <v>89</v>
       </c>
       <c r="F12" s="13">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G12" s="14">
         <v>100</v>
@@ -1455,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="13">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J12" s="15">
         <v>84467.2111</v>
@@ -1508,7 +1508,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="13">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="J13" s="15">
         <v>84967.2111</v>
@@ -1552,7 +1552,7 @@
         <v>91</v>
       </c>
       <c r="F14" s="13">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G14" s="14">
         <v>100</v>
@@ -1561,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="13">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="J14" s="15">
         <v>84467.2111</v>
@@ -1614,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="13">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="J15" s="15">
         <v>84967.2111</v>
@@ -1658,7 +1658,7 @@
         <v>88</v>
       </c>
       <c r="F16" s="13">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G16" s="14">
         <v>100</v>
@@ -1667,7 +1667,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="13">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="J16" s="15">
         <v>72641.801500000001</v>
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="13">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="J17" s="15">
         <v>80000</v>
@@ -1775,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="13">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="J18" s="15">
         <v>80000</v>

--- a/data/Szenario_Default/Power_VRES.xlsx
+++ b/data/Szenario_Default/Power_VRES.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suess\Desktop\Git\LEGO-Pyomo\data\Szenario_Default\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAD6706-8876-4EFF-9FFA-BCBE1A7CC039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420E4500-1EBB-4124-92EE-D7A153DFAE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -854,7 +867,7 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1245,7 @@
         <v>85</v>
       </c>
       <c r="F8" s="13">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="14">
         <v>100</v>
@@ -1340,7 +1353,7 @@
         <v>87</v>
       </c>
       <c r="F10" s="13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G10" s="14">
         <v>100</v>
@@ -1552,7 +1565,7 @@
         <v>91</v>
       </c>
       <c r="F14" s="13">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G14" s="14">
         <v>100</v>
@@ -1658,7 +1671,7 @@
         <v>88</v>
       </c>
       <c r="F16" s="13">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G16" s="14">
         <v>100</v>

--- a/data/Szenario_Default/Power_VRES.xlsx
+++ b/data/Szenario_Default/Power_VRES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suess\Desktop\Git\LEGO-Pyomo\data\Szenario_Default\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420E4500-1EBB-4124-92EE-D7A153DFAE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E75A01E-0AEC-4B5E-B332-4BB92B5C629B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -867,7 +867,7 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9:I18"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,7 +1245,7 @@
         <v>85</v>
       </c>
       <c r="F8" s="13">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G8" s="14">
         <v>100</v>
@@ -1254,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="13">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="J8" s="15">
         <v>72641.801500000001</v>
@@ -1309,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="13">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="J9" s="15">
         <v>80000</v>
@@ -1353,7 +1353,7 @@
         <v>87</v>
       </c>
       <c r="F10" s="13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G10" s="14">
         <v>100</v>
@@ -1362,7 +1362,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="13">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="J10" s="15">
         <v>84467.2111</v>
@@ -1415,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="13">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="J11" s="15">
         <v>84967.2111</v>
@@ -1459,7 +1459,7 @@
         <v>89</v>
       </c>
       <c r="F12" s="13">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G12" s="14">
         <v>100</v>
@@ -1468,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="13">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="J12" s="15">
         <v>84467.2111</v>
@@ -1521,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="13">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="J13" s="15">
         <v>84967.2111</v>
@@ -1565,7 +1565,7 @@
         <v>91</v>
       </c>
       <c r="F14" s="13">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G14" s="14">
         <v>100</v>
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="13">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="J14" s="15">
         <v>84467.2111</v>
@@ -1627,7 +1627,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="13">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="J15" s="15">
         <v>84967.2111</v>
@@ -1671,7 +1671,7 @@
         <v>88</v>
       </c>
       <c r="F16" s="13">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="G16" s="14">
         <v>100</v>
@@ -1680,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="13">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="J16" s="15">
         <v>72641.801500000001</v>
@@ -1735,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="13">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="J17" s="15">
         <v>80000</v>
@@ -1788,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="13">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="J18" s="15">
         <v>80000</v>
